--- a/data/tinkoff/03-07-2022.xlsx
+++ b/data/tinkoff/03-07-2022.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="907">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1240" uniqueCount="893">
   <si>
     <t>title</t>
   </si>
@@ -814,30 +814,18 @@
     <t>7e9c35f9-7b20-4fde-adca-3e097c045f4a</t>
   </si>
   <si>
-    <t>8f5a5d79-9866-4b3f-93b2-f2843bbd6f73</t>
-  </si>
-  <si>
     <t>903b493c-f707-42ac-a95d-fba1a532dc7e</t>
   </si>
   <si>
-    <t>bbecdf32-13b6-4eec-a231-cbb1705818ee</t>
-  </si>
-  <si>
     <t>c8f00c8e-1dd2-4aa4-8e48-b19114d4a15b</t>
   </si>
   <si>
-    <t>d1e7098e-a52a-4c6c-ab12-4eefb3a544c2</t>
-  </si>
-  <si>
     <t>e1938679-4520-4219-b1bb-4827f4594e7b</t>
   </si>
   <si>
     <t>efd48633-cf6d-4a8b-b4a4-015bb33f4686</t>
   </si>
   <si>
-    <t>f6fbe93f-7457-4bd0-844a-a89888c3ac0c</t>
-  </si>
-  <si>
     <t>89efbd62-f73a-4ec3-9dc5-d11cd2c1203a</t>
   </si>
   <si>
@@ -877,9 +865,6 @@
     <t>57f30276-a60b-4858-8399-0b985c4bf117</t>
   </si>
   <si>
-    <t>6e4c4fd0-cc85-4e72-a530-96a988ea5942</t>
-  </si>
-  <si>
     <t>89f50bed-9da9-45bd-99c9-bcece72cf507</t>
   </si>
   <si>
@@ -889,9 +874,6 @@
     <t>b89f8807-5ee9-4d41-be47-31fd490f65d6</t>
   </si>
   <si>
-    <t>c225e55b-3a5a-4417-9c0d-2c2b09f56fc5</t>
-  </si>
-  <si>
     <t>c54d5e51-5875-4b3d-9e49-f827a73fcf5e</t>
   </si>
   <si>
@@ -946,9 +928,6 @@
     <t>7a068892-8659-4476-8d84-9edfccf3039f</t>
   </si>
   <si>
-    <t>837056f9-1856-4b49-ad4c-34508425c8fa</t>
-  </si>
-  <si>
     <t>90f94e0b-300b-4676-9ece-9c288e1ccb1a</t>
   </si>
   <si>
@@ -1297,30 +1276,18 @@
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=ersonalnyj-menedzher-po-investiciyam2</t>
   </si>
   <si>
-    <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=starshij-personalnyj-menedzher-tinkoff-investicii-premium</t>
-  </si>
-  <si>
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=investicionnyj-konsultant-private-banking</t>
   </si>
   <si>
-    <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=personalnyj-menedzher-po-investiciyam6</t>
-  </si>
-  <si>
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=rukovoditel-gruppy-investicii-premium</t>
   </si>
   <si>
-    <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=personalnyj-menedzher-po-investiciyam1</t>
-  </si>
-  <si>
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=menedzher-soprovozhdeniya-sostoyatelnyh-klientov</t>
   </si>
   <si>
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=personalnyj-menedzher-premialnogo-obsluzhivaniya</t>
   </si>
   <si>
-    <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=personalnyj-menedzher-po-investiciyam</t>
-  </si>
-  <si>
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=menedzher-soprovozhdeniya-premialnogo-obsluzhivaniya1</t>
   </si>
   <si>
@@ -1360,9 +1327,6 @@
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=menedzher-po-prodazhe-kreditnyh-produktov-v-gorode-perm</t>
   </si>
   <si>
-    <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=menedzher-po-privlecheniyu-korporativnyh-klientov-srednego-biznesa12</t>
-  </si>
-  <si>
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=menedzher-po-prodazham-zarplatnyh-proektov-i-servisa-vyplat-samozanyatym-ispolnitelyam</t>
   </si>
   <si>
@@ -1372,9 +1336,6 @@
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=specialist-po-privlecheniyu-korporativnyh-klientov-goszakupki</t>
   </si>
   <si>
-    <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=menedzher-po-privlecheniyu-korporativnyh-klientov-srednego-biznesa13</t>
-  </si>
-  <si>
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=menedzher-po-prodazhe-kreditnyh-produktov-v-gorode-tula</t>
   </si>
   <si>
@@ -1429,9 +1390,6 @@
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=trener-gruppy-obucheniya4</t>
   </si>
   <si>
-    <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=trener-gruppy-obucheniya5</t>
-  </si>
-  <si>
     <t>https://cfg.tinkoff.ru/vacancies/public/api/platform/v2/getVacancy?urlSlug=biznes-trener</t>
   </si>
   <si>
@@ -2179,7 +2137,7 @@
     <t>Самостоятельно искать и привлекать юридические лица для подключения интернет-эквайринга и дополнительных продуктов банка Проводить телефонные переговоры, презентации, личные встречи с первыми лицами компаний Оптимизировать и увеличивать доходность клиентской базы Сопровождать, консультировать и поддерживать B2B клиентов</t>
   </si>
   <si>
-    <t>· Самостоятельно находить и привлекать потенциальных партнеров в программу кредитования покупателей и подключать комплексное банковское обслуживание · Совершать холодные звонки, назначать и проводить личные встречи и презентации для первых лиц компании · Сопровождать клиентов на этапе запуска совместной работы · Оптимизировать и увеличивать доходность клиентской базы</t>
+    <t>- Самостоятельно находить и привлекать потенциальных партнеров в программу кредитования покупателей и подключать комплексное банковское обслуживание - Совершать холодные звонки, назначать и проводить личные встречи и презентации для первых лиц компании - Сопровождать клиентов на этапе запуска совместной работы - Оптимизировать и увеличивать доходность клиентской базы</t>
   </si>
   <si>
     <t>Планировать этапы запуска проекта, контролировать его реализацию Ежедневно общаться с командами аналитиков, разработчиков Формировать ТЗ, ставить задачи техническим специалистам Отвечать за результат, поддерживать и развивать текущий проект Работать в условиях дедлайнов, многозадачности</t>
@@ -2602,7 +2560,7 @@
     <t>Опыт самостоятельного поиска и холодных звонков (желателен) Навыки ведения встреч и переговоров с первыми лицами компании (будет преимуществом) Опыт активных продаж (желателен) Коммуникабельность, инициативность, стрессоустойчивость, обучаемость, мобильность (обязательно)</t>
   </si>
   <si>
-    <t>· Опыт проведения встреч или переговоров на уровне первых лиц и знание рынка POS-кредитования · Опыт B2B продаж от 1 года · Опыт самостоятельного поиска и холодных звонков · Опыт активных телефонных продаж · Знание техник продаж · Желание развиваться в сфере продаж и нацеленность на достижение максимального результата · Самостоятельность, ответственность и самодисциплину – это поможет вам построить успешную карьеру</t>
+    <t>- Опыт проведения встреч или переговоров на уровне первых лиц и знание рынка POS-кредитования - Опыт B2B продаж от 1 года - Опыт самостоятельного поиска и холодных звонков - Опыт активных телефонных продаж - Знание техник продаж - Желание развиваться в сфере продаж и нацеленность на достижение максимального результата - Самостоятельность, ответственность и самодисциплину – это поможет вам построить успешную карьеру</t>
   </si>
   <si>
     <t>Опыт ведения проектных задач Понимание, что такое воронка продаж, конверсия Готовность предлагать нестандартные решения задач Уверенное владение MS Office, Excel Критическое мышление, умение решать логические задачи Умение аргументированно отстаивать свою точку зрения</t>
@@ -3105,7 +3063,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I162"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3148,22 +3106,22 @@
         <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E2" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="F2" t="s">
-        <v>604</v>
+        <v>590</v>
       </c>
       <c r="G2" t="s">
-        <v>740</v>
+        <v>726</v>
       </c>
       <c r="H2" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I2" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3177,22 +3135,22 @@
         <v>156</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E3" t="s">
-        <v>478</v>
+        <v>464</v>
       </c>
       <c r="F3" t="s">
-        <v>605</v>
+        <v>591</v>
       </c>
       <c r="G3" t="s">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="H3" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I3" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3206,22 +3164,22 @@
         <v>157</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E4" t="s">
-        <v>479</v>
+        <v>465</v>
       </c>
       <c r="F4" t="s">
-        <v>606</v>
+        <v>592</v>
       </c>
       <c r="G4" t="s">
-        <v>742</v>
+        <v>728</v>
       </c>
       <c r="H4" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I4" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3235,22 +3193,22 @@
         <v>158</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E5" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="F5" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="G5" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="H5" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I5" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3264,22 +3222,22 @@
         <v>159</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="E6" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F6" t="s">
-        <v>608</v>
+        <v>594</v>
       </c>
       <c r="G6" t="s">
-        <v>744</v>
+        <v>730</v>
       </c>
       <c r="H6" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I6" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3293,22 +3251,22 @@
         <v>160</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E7" t="s">
-        <v>480</v>
+        <v>466</v>
       </c>
       <c r="F7" t="s">
-        <v>607</v>
+        <v>593</v>
       </c>
       <c r="G7" t="s">
-        <v>745</v>
+        <v>731</v>
       </c>
       <c r="H7" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I7" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3322,22 +3280,22 @@
         <v>161</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E8" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="F8" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="G8" t="s">
-        <v>746</v>
+        <v>732</v>
       </c>
       <c r="H8" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I8" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3351,22 +3309,22 @@
         <v>162</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E9" t="s">
-        <v>483</v>
+        <v>469</v>
       </c>
       <c r="F9" t="s">
-        <v>610</v>
+        <v>596</v>
       </c>
       <c r="G9" t="s">
-        <v>747</v>
+        <v>733</v>
       </c>
       <c r="H9" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I9" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3380,22 +3338,22 @@
         <v>163</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E10" t="s">
-        <v>484</v>
+        <v>470</v>
       </c>
       <c r="F10" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="G10" t="s">
-        <v>748</v>
+        <v>734</v>
       </c>
       <c r="H10" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I10" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3409,22 +3367,22 @@
         <v>164</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E11" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F11" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G11" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="H11" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I11" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3438,22 +3396,22 @@
         <v>165</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E12" t="s">
-        <v>486</v>
+        <v>472</v>
       </c>
       <c r="F12" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="G12" t="s">
-        <v>750</v>
+        <v>736</v>
       </c>
       <c r="H12" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I12" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3467,22 +3425,22 @@
         <v>166</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E13" t="s">
-        <v>487</v>
+        <v>473</v>
       </c>
       <c r="F13" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="G13" t="s">
-        <v>751</v>
+        <v>737</v>
       </c>
       <c r="H13" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I13" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3496,22 +3454,22 @@
         <v>167</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E14" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F14" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="G14" t="s">
-        <v>752</v>
+        <v>738</v>
       </c>
       <c r="H14" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I14" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3525,22 +3483,22 @@
         <v>168</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E15" t="s">
-        <v>488</v>
+        <v>474</v>
       </c>
       <c r="F15" t="s">
-        <v>616</v>
+        <v>602</v>
       </c>
       <c r="G15" t="s">
-        <v>753</v>
+        <v>739</v>
       </c>
       <c r="H15" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I15" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -3554,22 +3512,22 @@
         <v>169</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E16" t="s">
-        <v>489</v>
+        <v>475</v>
       </c>
       <c r="F16" t="s">
-        <v>617</v>
+        <v>603</v>
       </c>
       <c r="G16" t="s">
-        <v>754</v>
+        <v>740</v>
       </c>
       <c r="H16" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I16" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -3583,22 +3541,22 @@
         <v>170</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E17" t="s">
-        <v>490</v>
+        <v>476</v>
       </c>
       <c r="F17" t="s">
-        <v>618</v>
+        <v>604</v>
       </c>
       <c r="G17" t="s">
-        <v>755</v>
+        <v>741</v>
       </c>
       <c r="H17" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I17" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -3612,22 +3570,22 @@
         <v>171</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="E18" t="s">
-        <v>491</v>
+        <v>477</v>
       </c>
       <c r="F18" t="s">
-        <v>619</v>
+        <v>605</v>
       </c>
       <c r="G18" t="s">
-        <v>756</v>
+        <v>742</v>
       </c>
       <c r="H18" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I18" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -3641,22 +3599,22 @@
         <v>172</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E19" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="F19" t="s">
-        <v>620</v>
+        <v>606</v>
       </c>
       <c r="G19" t="s">
-        <v>757</v>
+        <v>743</v>
       </c>
       <c r="H19" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I19" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -3670,22 +3628,22 @@
         <v>173</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="E20" t="s">
-        <v>493</v>
+        <v>479</v>
       </c>
       <c r="F20" t="s">
-        <v>621</v>
+        <v>607</v>
       </c>
       <c r="G20" t="s">
-        <v>758</v>
+        <v>744</v>
       </c>
       <c r="H20" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I20" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -3699,22 +3657,22 @@
         <v>174</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="E21" t="s">
-        <v>494</v>
+        <v>480</v>
       </c>
       <c r="F21" t="s">
-        <v>622</v>
+        <v>608</v>
       </c>
       <c r="G21" t="s">
-        <v>759</v>
+        <v>745</v>
       </c>
       <c r="H21" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I21" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -3728,22 +3686,22 @@
         <v>175</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="E22" t="s">
-        <v>495</v>
+        <v>481</v>
       </c>
       <c r="F22" t="s">
-        <v>623</v>
+        <v>609</v>
       </c>
       <c r="G22" t="s">
-        <v>760</v>
+        <v>746</v>
       </c>
       <c r="H22" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I22" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -3757,22 +3715,22 @@
         <v>176</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
       <c r="E23" t="s">
-        <v>496</v>
+        <v>482</v>
       </c>
       <c r="F23" t="s">
-        <v>624</v>
+        <v>610</v>
       </c>
       <c r="G23" t="s">
-        <v>761</v>
+        <v>747</v>
       </c>
       <c r="H23" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I23" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -3786,22 +3744,22 @@
         <v>177</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
       <c r="E24" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F24" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="G24" t="s">
-        <v>762</v>
+        <v>748</v>
       </c>
       <c r="H24" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I24" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -3815,22 +3773,22 @@
         <v>178</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E25" t="s">
-        <v>485</v>
+        <v>471</v>
       </c>
       <c r="F25" t="s">
-        <v>612</v>
+        <v>598</v>
       </c>
       <c r="G25" t="s">
-        <v>749</v>
+        <v>735</v>
       </c>
       <c r="H25" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I25" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -3844,22 +3802,22 @@
         <v>179</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
       <c r="E26" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="F26" t="s">
-        <v>625</v>
+        <v>611</v>
       </c>
       <c r="G26" t="s">
-        <v>763</v>
+        <v>749</v>
       </c>
       <c r="H26" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I26" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -3873,22 +3831,22 @@
         <v>180</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>341</v>
+        <v>334</v>
       </c>
       <c r="E27" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="F27" t="s">
-        <v>626</v>
+        <v>612</v>
       </c>
       <c r="G27" t="s">
-        <v>764</v>
+        <v>750</v>
       </c>
       <c r="H27" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I27" t="s">
-        <v>882</v>
+        <v>868</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -3902,22 +3860,22 @@
         <v>181</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E28" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F28" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="G28" t="s">
-        <v>765</v>
+        <v>751</v>
       </c>
       <c r="H28" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I28" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -3931,22 +3889,22 @@
         <v>182</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E29" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="F29" t="s">
-        <v>627</v>
+        <v>613</v>
       </c>
       <c r="G29" t="s">
-        <v>766</v>
+        <v>752</v>
       </c>
       <c r="H29" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I29" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -3960,22 +3918,22 @@
         <v>183</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="E30" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="F30" t="s">
-        <v>628</v>
+        <v>614</v>
       </c>
       <c r="G30" t="s">
-        <v>767</v>
+        <v>753</v>
       </c>
       <c r="H30" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I30" t="s">
-        <v>883</v>
+        <v>869</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -3989,22 +3947,22 @@
         <v>184</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="E31" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="F31" t="s">
-        <v>629</v>
+        <v>615</v>
       </c>
       <c r="G31" t="s">
-        <v>768</v>
+        <v>754</v>
       </c>
       <c r="H31" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I31" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -4018,22 +3976,22 @@
         <v>185</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E32" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="F32" t="s">
-        <v>630</v>
+        <v>616</v>
       </c>
       <c r="G32" t="s">
-        <v>769</v>
+        <v>755</v>
       </c>
       <c r="H32" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I32" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4047,22 +4005,22 @@
         <v>186</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E33" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="F33" t="s">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="G33" t="s">
-        <v>770</v>
+        <v>756</v>
       </c>
       <c r="H33" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I33" t="s">
-        <v>885</v>
+        <v>871</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -4076,22 +4034,22 @@
         <v>187</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E34" t="s">
-        <v>503</v>
+        <v>489</v>
       </c>
       <c r="F34" t="s">
-        <v>632</v>
+        <v>618</v>
       </c>
       <c r="G34" t="s">
-        <v>771</v>
+        <v>757</v>
       </c>
       <c r="H34" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I34" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -4105,22 +4063,22 @@
         <v>188</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E35" t="s">
-        <v>504</v>
+        <v>490</v>
       </c>
       <c r="F35" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="G35" t="s">
-        <v>772</v>
+        <v>758</v>
       </c>
       <c r="H35" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I35" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -4134,22 +4092,22 @@
         <v>189</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E36" t="s">
-        <v>505</v>
+        <v>491</v>
       </c>
       <c r="F36" t="s">
-        <v>634</v>
+        <v>620</v>
       </c>
       <c r="G36" t="s">
-        <v>773</v>
+        <v>759</v>
       </c>
       <c r="H36" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I36" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -4163,22 +4121,22 @@
         <v>190</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E37" t="s">
-        <v>506</v>
+        <v>492</v>
       </c>
       <c r="F37" t="s">
-        <v>635</v>
+        <v>621</v>
       </c>
       <c r="G37" t="s">
-        <v>774</v>
+        <v>760</v>
       </c>
       <c r="H37" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I37" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -4192,22 +4150,22 @@
         <v>191</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="E38" t="s">
-        <v>477</v>
+        <v>463</v>
       </c>
       <c r="F38" t="s">
-        <v>636</v>
+        <v>622</v>
       </c>
       <c r="G38" t="s">
-        <v>775</v>
+        <v>761</v>
       </c>
       <c r="H38" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I38" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -4221,22 +4179,22 @@
         <v>192</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="E39" t="s">
-        <v>507</v>
+        <v>493</v>
       </c>
       <c r="F39" t="s">
-        <v>633</v>
+        <v>619</v>
       </c>
       <c r="G39" t="s">
-        <v>776</v>
+        <v>762</v>
       </c>
       <c r="H39" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I39" t="s">
-        <v>886</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -4250,22 +4208,22 @@
         <v>193</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E40" t="s">
-        <v>508</v>
+        <v>494</v>
       </c>
       <c r="F40" t="s">
-        <v>637</v>
+        <v>623</v>
       </c>
       <c r="G40" t="s">
-        <v>777</v>
+        <v>763</v>
       </c>
       <c r="H40" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I40" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -4279,22 +4237,22 @@
         <v>194</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="E41" t="s">
-        <v>509</v>
+        <v>495</v>
       </c>
       <c r="F41" t="s">
-        <v>638</v>
+        <v>624</v>
       </c>
       <c r="G41" t="s">
-        <v>778</v>
+        <v>764</v>
       </c>
       <c r="H41" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I41" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -4308,22 +4266,22 @@
         <v>195</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="E42" t="s">
-        <v>510</v>
+        <v>496</v>
       </c>
       <c r="F42" t="s">
-        <v>639</v>
+        <v>625</v>
       </c>
       <c r="G42" t="s">
-        <v>779</v>
+        <v>765</v>
       </c>
       <c r="H42" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I42" t="s">
-        <v>887</v>
+        <v>873</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -4337,22 +4295,22 @@
         <v>196</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
       <c r="E43" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F43" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="G43" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="H43" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I43" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -4366,22 +4324,22 @@
         <v>197</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E44" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="F44" t="s">
-        <v>641</v>
+        <v>627</v>
       </c>
       <c r="G44" t="s">
-        <v>781</v>
+        <v>767</v>
       </c>
       <c r="H44" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I44" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -4395,22 +4353,22 @@
         <v>198</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E45" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F45" t="s">
-        <v>642</v>
+        <v>628</v>
       </c>
       <c r="G45" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="H45" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I45" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -4424,22 +4382,22 @@
         <v>199</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E46" t="s">
-        <v>512</v>
+        <v>498</v>
       </c>
       <c r="F46" t="s">
-        <v>643</v>
+        <v>629</v>
       </c>
       <c r="G46" t="s">
-        <v>783</v>
+        <v>769</v>
       </c>
       <c r="H46" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I46" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -4453,22 +4411,22 @@
         <v>200</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E47" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F47" t="s">
-        <v>640</v>
+        <v>626</v>
       </c>
       <c r="G47" t="s">
-        <v>780</v>
+        <v>766</v>
       </c>
       <c r="H47" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I47" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -4482,22 +4440,22 @@
         <v>201</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="E48" t="s">
-        <v>511</v>
+        <v>497</v>
       </c>
       <c r="F48" t="s">
-        <v>644</v>
+        <v>630</v>
       </c>
       <c r="G48" t="s">
-        <v>782</v>
+        <v>768</v>
       </c>
       <c r="H48" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I48" t="s">
-        <v>888</v>
+        <v>874</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -4511,22 +4469,22 @@
         <v>202</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E49" t="s">
-        <v>513</v>
+        <v>499</v>
       </c>
       <c r="F49" t="s">
-        <v>645</v>
+        <v>631</v>
       </c>
       <c r="G49" t="s">
-        <v>784</v>
+        <v>770</v>
       </c>
       <c r="H49" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I49" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -4540,22 +4498,22 @@
         <v>203</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E50" t="s">
-        <v>514</v>
+        <v>500</v>
       </c>
       <c r="F50" t="s">
-        <v>646</v>
+        <v>632</v>
       </c>
       <c r="G50" t="s">
-        <v>785</v>
+        <v>771</v>
       </c>
       <c r="H50" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I50" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -4569,22 +4527,22 @@
         <v>204</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E51" t="s">
-        <v>515</v>
+        <v>501</v>
       </c>
       <c r="F51" t="s">
-        <v>647</v>
+        <v>633</v>
       </c>
       <c r="G51" t="s">
-        <v>786</v>
+        <v>772</v>
       </c>
       <c r="H51" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I51" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -4598,22 +4556,22 @@
         <v>205</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E52" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F52" t="s">
-        <v>648</v>
+        <v>634</v>
       </c>
       <c r="G52" t="s">
-        <v>787</v>
+        <v>773</v>
       </c>
       <c r="H52" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I52" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -4627,22 +4585,22 @@
         <v>206</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="E53" t="s">
-        <v>516</v>
+        <v>502</v>
       </c>
       <c r="F53" t="s">
-        <v>649</v>
+        <v>635</v>
       </c>
       <c r="G53" t="s">
-        <v>788</v>
+        <v>774</v>
       </c>
       <c r="H53" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I53" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -4656,22 +4614,22 @@
         <v>207</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="E54" t="s">
-        <v>517</v>
+        <v>503</v>
       </c>
       <c r="F54" t="s">
-        <v>650</v>
+        <v>636</v>
       </c>
       <c r="G54" t="s">
-        <v>789</v>
+        <v>775</v>
       </c>
       <c r="H54" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I54" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -4685,22 +4643,22 @@
         <v>208</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E55" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="F55" t="s">
-        <v>651</v>
+        <v>637</v>
       </c>
       <c r="G55" t="s">
-        <v>790</v>
+        <v>776</v>
       </c>
       <c r="H55" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I55" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -4714,22 +4672,22 @@
         <v>209</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="E56" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="F56" t="s">
-        <v>652</v>
+        <v>638</v>
       </c>
       <c r="G56" t="s">
-        <v>791</v>
+        <v>777</v>
       </c>
       <c r="H56" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I56" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -4743,22 +4701,22 @@
         <v>210</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E57" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="F57" t="s">
-        <v>653</v>
+        <v>639</v>
       </c>
       <c r="G57" t="s">
-        <v>792</v>
+        <v>778</v>
       </c>
       <c r="H57" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I57" t="s">
-        <v>889</v>
+        <v>875</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -4772,22 +4730,22 @@
         <v>211</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E58" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="F58" t="s">
-        <v>521</v>
+        <v>507</v>
       </c>
       <c r="G58" t="s">
-        <v>793</v>
+        <v>779</v>
       </c>
       <c r="H58" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I58" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -4801,22 +4759,22 @@
         <v>212</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="E59" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="F59" t="s">
-        <v>654</v>
+        <v>640</v>
       </c>
       <c r="G59" t="s">
-        <v>794</v>
+        <v>780</v>
       </c>
       <c r="H59" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I59" t="s">
-        <v>890</v>
+        <v>876</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -4830,22 +4788,22 @@
         <v>213</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E60" t="s">
-        <v>481</v>
+        <v>467</v>
       </c>
       <c r="F60" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="G60" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="H60" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I60" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -4859,22 +4817,22 @@
         <v>214</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E61" t="s">
-        <v>523</v>
+        <v>509</v>
       </c>
       <c r="F61" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="G61" t="s">
-        <v>796</v>
+        <v>782</v>
       </c>
       <c r="H61" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I61" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -4888,22 +4846,22 @@
         <v>215</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E62" t="s">
-        <v>524</v>
+        <v>510</v>
       </c>
       <c r="F62" t="s">
-        <v>657</v>
+        <v>643</v>
       </c>
       <c r="G62" t="s">
-        <v>797</v>
+        <v>783</v>
       </c>
       <c r="H62" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I62" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -4917,22 +4875,22 @@
         <v>216</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="E63" t="s">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="F63" t="s">
-        <v>658</v>
+        <v>644</v>
       </c>
       <c r="G63" t="s">
-        <v>795</v>
+        <v>781</v>
       </c>
       <c r="H63" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I63" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -4946,22 +4904,22 @@
         <v>217</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="E64" t="s">
-        <v>526</v>
+        <v>512</v>
       </c>
       <c r="F64" t="s">
-        <v>659</v>
+        <v>645</v>
       </c>
       <c r="G64" t="s">
-        <v>798</v>
+        <v>784</v>
       </c>
       <c r="H64" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I64" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -4975,22 +4933,22 @@
         <v>218</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E65" t="s">
-        <v>527</v>
+        <v>513</v>
       </c>
       <c r="F65" t="s">
-        <v>656</v>
+        <v>642</v>
       </c>
       <c r="G65" t="s">
-        <v>799</v>
+        <v>785</v>
       </c>
       <c r="H65" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I65" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -5004,22 +4962,22 @@
         <v>219</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="E66" t="s">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="F66" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="G66" t="s">
-        <v>800</v>
+        <v>786</v>
       </c>
       <c r="H66" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I66" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -5033,22 +4991,22 @@
         <v>220</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E67" t="s">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="F67" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="G67" t="s">
-        <v>801</v>
+        <v>787</v>
       </c>
       <c r="H67" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I67" t="s">
-        <v>891</v>
+        <v>877</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -5062,22 +5020,22 @@
         <v>221</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="E68" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="F68" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="G68" t="s">
-        <v>802</v>
+        <v>788</v>
       </c>
       <c r="H68" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I68" t="s">
-        <v>892</v>
+        <v>878</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -5091,22 +5049,22 @@
         <v>222</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E69" t="s">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F69" t="s">
-        <v>663</v>
+        <v>649</v>
       </c>
       <c r="G69" t="s">
-        <v>803</v>
+        <v>789</v>
       </c>
       <c r="H69" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I69" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -5120,22 +5078,22 @@
         <v>223</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="E70" t="s">
-        <v>532</v>
+        <v>518</v>
       </c>
       <c r="F70" t="s">
-        <v>664</v>
+        <v>650</v>
       </c>
       <c r="G70" t="s">
-        <v>804</v>
+        <v>790</v>
       </c>
       <c r="H70" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I70" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -5149,22 +5107,22 @@
         <v>224</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E71" t="s">
-        <v>533</v>
+        <v>519</v>
       </c>
       <c r="F71" t="s">
-        <v>665</v>
+        <v>651</v>
       </c>
       <c r="G71" t="s">
-        <v>805</v>
+        <v>791</v>
       </c>
       <c r="H71" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I71" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -5178,22 +5136,22 @@
         <v>225</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E72" t="s">
-        <v>534</v>
+        <v>520</v>
       </c>
       <c r="F72" t="s">
-        <v>666</v>
+        <v>652</v>
       </c>
       <c r="G72" t="s">
-        <v>806</v>
+        <v>792</v>
       </c>
       <c r="H72" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I72" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -5207,22 +5165,22 @@
         <v>226</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E73" t="s">
-        <v>535</v>
+        <v>521</v>
       </c>
       <c r="F73" t="s">
-        <v>667</v>
+        <v>653</v>
       </c>
       <c r="G73" t="s">
-        <v>807</v>
+        <v>793</v>
       </c>
       <c r="H73" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I73" t="s">
-        <v>884</v>
+        <v>870</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -5236,22 +5194,22 @@
         <v>227</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E74" t="s">
-        <v>536</v>
+        <v>522</v>
       </c>
       <c r="F74" t="s">
-        <v>668</v>
+        <v>654</v>
       </c>
       <c r="G74" t="s">
-        <v>808</v>
+        <v>794</v>
       </c>
       <c r="H74" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I74" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -5265,22 +5223,22 @@
         <v>228</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="E75" t="s">
-        <v>537</v>
+        <v>523</v>
       </c>
       <c r="F75" t="s">
-        <v>669</v>
+        <v>655</v>
       </c>
       <c r="G75" t="s">
-        <v>809</v>
+        <v>795</v>
       </c>
       <c r="H75" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I75" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -5294,22 +5252,22 @@
         <v>229</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="E76" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="F76" t="s">
-        <v>670</v>
+        <v>656</v>
       </c>
       <c r="G76" t="s">
-        <v>810</v>
+        <v>796</v>
       </c>
       <c r="H76" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I76" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -5323,22 +5281,22 @@
         <v>230</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E77" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="F77" t="s">
-        <v>671</v>
+        <v>657</v>
       </c>
       <c r="G77" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="H77" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I77" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -5352,22 +5310,22 @@
         <v>231</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="E78" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="F78" t="s">
-        <v>672</v>
+        <v>658</v>
       </c>
       <c r="G78" t="s">
-        <v>812</v>
+        <v>798</v>
       </c>
       <c r="H78" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I78" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -5381,22 +5339,22 @@
         <v>232</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E79" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="F79" t="s">
-        <v>673</v>
+        <v>659</v>
       </c>
       <c r="G79" t="s">
-        <v>811</v>
+        <v>797</v>
       </c>
       <c r="H79" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I79" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -5410,22 +5368,22 @@
         <v>233</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="E80" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="F80" t="s">
-        <v>674</v>
+        <v>660</v>
       </c>
       <c r="G80" t="s">
-        <v>813</v>
+        <v>799</v>
       </c>
       <c r="H80" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I80" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -5439,22 +5397,22 @@
         <v>234</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E81" t="s">
-        <v>543</v>
+        <v>529</v>
       </c>
       <c r="F81" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="G81" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="H81" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I81" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -5468,22 +5426,22 @@
         <v>235</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="E82" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="F82" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="G82" t="s">
-        <v>815</v>
+        <v>801</v>
       </c>
       <c r="H82" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I82" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -5497,22 +5455,22 @@
         <v>236</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="E83" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="F83" t="s">
-        <v>677</v>
+        <v>663</v>
       </c>
       <c r="G83" t="s">
-        <v>816</v>
+        <v>802</v>
       </c>
       <c r="H83" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I83" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -5526,22 +5484,22 @@
         <v>237</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="E84" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="F84" t="s">
-        <v>678</v>
+        <v>664</v>
       </c>
       <c r="G84" t="s">
-        <v>817</v>
+        <v>803</v>
       </c>
       <c r="H84" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I84" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -5555,22 +5513,22 @@
         <v>238</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E85" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="F85" t="s">
-        <v>679</v>
+        <v>665</v>
       </c>
       <c r="G85" t="s">
-        <v>818</v>
+        <v>804</v>
       </c>
       <c r="H85" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I85" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -5584,22 +5542,22 @@
         <v>239</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E86" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="F86" t="s">
-        <v>680</v>
+        <v>666</v>
       </c>
       <c r="G86" t="s">
-        <v>819</v>
+        <v>805</v>
       </c>
       <c r="H86" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I86" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -5613,22 +5571,22 @@
         <v>240</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E87" t="s">
-        <v>549</v>
+        <v>535</v>
       </c>
       <c r="F87" t="s">
-        <v>681</v>
+        <v>667</v>
       </c>
       <c r="G87" t="s">
-        <v>820</v>
+        <v>806</v>
       </c>
       <c r="H87" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I87" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -5642,22 +5600,22 @@
         <v>241</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="E88" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
       <c r="F88" t="s">
-        <v>682</v>
+        <v>668</v>
       </c>
       <c r="G88" t="s">
-        <v>821</v>
+        <v>807</v>
       </c>
       <c r="H88" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I88" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -5671,22 +5629,22 @@
         <v>242</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="E89" t="s">
-        <v>551</v>
+        <v>537</v>
       </c>
       <c r="F89" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="G89" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="H89" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I89" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -5700,22 +5658,22 @@
         <v>243</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E90" t="s">
-        <v>552</v>
+        <v>538</v>
       </c>
       <c r="F90" t="s">
-        <v>684</v>
+        <v>670</v>
       </c>
       <c r="G90" t="s">
-        <v>823</v>
+        <v>809</v>
       </c>
       <c r="H90" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I90" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -5729,22 +5687,22 @@
         <v>244</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E91" t="s">
-        <v>553</v>
+        <v>539</v>
       </c>
       <c r="F91" t="s">
-        <v>683</v>
+        <v>669</v>
       </c>
       <c r="G91" t="s">
-        <v>824</v>
+        <v>810</v>
       </c>
       <c r="H91" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I91" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -5758,22 +5716,22 @@
         <v>245</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E92" t="s">
-        <v>554</v>
+        <v>540</v>
       </c>
       <c r="F92" t="s">
-        <v>685</v>
+        <v>671</v>
       </c>
       <c r="G92" t="s">
-        <v>814</v>
+        <v>800</v>
       </c>
       <c r="H92" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I92" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -5787,22 +5745,22 @@
         <v>246</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="E93" t="s">
-        <v>555</v>
+        <v>541</v>
       </c>
       <c r="F93" t="s">
-        <v>675</v>
+        <v>661</v>
       </c>
       <c r="G93" t="s">
-        <v>822</v>
+        <v>808</v>
       </c>
       <c r="H93" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I93" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -5816,22 +5774,22 @@
         <v>247</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E94" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="F94" t="s">
-        <v>686</v>
+        <v>672</v>
       </c>
       <c r="G94" t="s">
-        <v>825</v>
+        <v>811</v>
       </c>
       <c r="H94" t="s">
+        <v>867</v>
+      </c>
+      <c r="I94" t="s">
         <v>881</v>
-      </c>
-      <c r="I94" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -5845,22 +5803,22 @@
         <v>248</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="E95" t="s">
-        <v>557</v>
+        <v>543</v>
       </c>
       <c r="F95" t="s">
-        <v>687</v>
+        <v>673</v>
       </c>
       <c r="G95" t="s">
-        <v>826</v>
+        <v>812</v>
       </c>
       <c r="H95" t="s">
+        <v>867</v>
+      </c>
+      <c r="I95" t="s">
         <v>881</v>
-      </c>
-      <c r="I95" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -5874,22 +5832,22 @@
         <v>249</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E96" t="s">
-        <v>558</v>
+        <v>544</v>
       </c>
       <c r="F96" t="s">
-        <v>688</v>
+        <v>674</v>
       </c>
       <c r="G96" t="s">
-        <v>827</v>
+        <v>813</v>
       </c>
       <c r="H96" t="s">
+        <v>867</v>
+      </c>
+      <c r="I96" t="s">
         <v>881</v>
-      </c>
-      <c r="I96" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -5903,22 +5861,22 @@
         <v>250</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="E97" t="s">
-        <v>559</v>
+        <v>545</v>
       </c>
       <c r="F97" t="s">
-        <v>689</v>
+        <v>675</v>
       </c>
       <c r="G97" t="s">
-        <v>828</v>
+        <v>814</v>
       </c>
       <c r="H97" t="s">
+        <v>867</v>
+      </c>
+      <c r="I97" t="s">
         <v>881</v>
-      </c>
-      <c r="I97" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -5932,22 +5890,22 @@
         <v>251</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E98" t="s">
-        <v>556</v>
+        <v>542</v>
       </c>
       <c r="F98" t="s">
-        <v>690</v>
+        <v>676</v>
       </c>
       <c r="G98" t="s">
-        <v>829</v>
+        <v>815</v>
       </c>
       <c r="H98" t="s">
+        <v>867</v>
+      </c>
+      <c r="I98" t="s">
         <v>881</v>
-      </c>
-      <c r="I98" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -5961,22 +5919,22 @@
         <v>252</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="E99" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="F99" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="G99" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="H99" t="s">
+        <v>867</v>
+      </c>
+      <c r="I99" t="s">
         <v>881</v>
-      </c>
-      <c r="I99" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -5990,22 +5948,22 @@
         <v>253</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E100" t="s">
-        <v>522</v>
+        <v>508</v>
       </c>
       <c r="F100" t="s">
-        <v>691</v>
+        <v>677</v>
       </c>
       <c r="G100" t="s">
-        <v>830</v>
+        <v>816</v>
       </c>
       <c r="H100" t="s">
+        <v>867</v>
+      </c>
+      <c r="I100" t="s">
         <v>881</v>
-      </c>
-      <c r="I100" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -6019,22 +5977,22 @@
         <v>254</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E101" t="s">
-        <v>560</v>
+        <v>546</v>
       </c>
       <c r="F101" t="s">
-        <v>692</v>
+        <v>678</v>
       </c>
       <c r="G101" t="s">
-        <v>831</v>
+        <v>817</v>
       </c>
       <c r="H101" t="s">
+        <v>867</v>
+      </c>
+      <c r="I101" t="s">
         <v>881</v>
-      </c>
-      <c r="I101" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -6048,22 +6006,22 @@
         <v>255</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="E102" t="s">
-        <v>561</v>
+        <v>547</v>
       </c>
       <c r="F102" t="s">
-        <v>693</v>
+        <v>679</v>
       </c>
       <c r="G102" t="s">
-        <v>832</v>
+        <v>818</v>
       </c>
       <c r="H102" t="s">
+        <v>867</v>
+      </c>
+      <c r="I102" t="s">
         <v>881</v>
-      </c>
-      <c r="I102" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -6077,22 +6035,22 @@
         <v>256</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E103" t="s">
-        <v>562</v>
+        <v>548</v>
       </c>
       <c r="F103" t="s">
-        <v>694</v>
+        <v>680</v>
       </c>
       <c r="G103" t="s">
-        <v>833</v>
+        <v>819</v>
       </c>
       <c r="H103" t="s">
+        <v>867</v>
+      </c>
+      <c r="I103" t="s">
         <v>881</v>
-      </c>
-      <c r="I103" t="s">
-        <v>895</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -6106,22 +6064,22 @@
         <v>257</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E104" t="s">
-        <v>563</v>
+        <v>549</v>
       </c>
       <c r="F104" t="s">
-        <v>695</v>
+        <v>681</v>
       </c>
       <c r="G104" t="s">
-        <v>834</v>
+        <v>820</v>
       </c>
       <c r="H104" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I104" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -6135,22 +6093,22 @@
         <v>258</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E105" t="s">
-        <v>564</v>
+        <v>550</v>
       </c>
       <c r="F105" t="s">
-        <v>696</v>
+        <v>682</v>
       </c>
       <c r="G105" t="s">
-        <v>835</v>
+        <v>821</v>
       </c>
       <c r="H105" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I105" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -6164,22 +6122,22 @@
         <v>259</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E106" t="s">
-        <v>565</v>
+        <v>551</v>
       </c>
       <c r="F106" t="s">
-        <v>697</v>
+        <v>683</v>
       </c>
       <c r="G106" t="s">
-        <v>836</v>
+        <v>822</v>
       </c>
       <c r="H106" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I106" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -6193,22 +6151,22 @@
         <v>260</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="E107" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="F107" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="G107" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="H107" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I107" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -6222,22 +6180,22 @@
         <v>261</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="E108" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F108" t="s">
-        <v>699</v>
+        <v>685</v>
       </c>
       <c r="G108" t="s">
-        <v>838</v>
+        <v>824</v>
       </c>
       <c r="H108" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I108" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -6251,22 +6209,22 @@
         <v>262</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="E109" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="F109" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="G109" t="s">
-        <v>837</v>
+        <v>823</v>
       </c>
       <c r="H109" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I109" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -6280,22 +6238,22 @@
         <v>263</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E110" t="s">
-        <v>568</v>
+        <v>554</v>
       </c>
       <c r="F110" t="s">
-        <v>700</v>
+        <v>686</v>
       </c>
       <c r="G110" t="s">
-        <v>839</v>
+        <v>825</v>
       </c>
       <c r="H110" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I110" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -6309,22 +6267,22 @@
         <v>264</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E111" t="s">
-        <v>567</v>
+        <v>553</v>
       </c>
       <c r="F111" t="s">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="G111" t="s">
-        <v>840</v>
+        <v>826</v>
       </c>
       <c r="H111" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I111" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -6338,1472 +6296,1269 @@
         <v>265</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="E112" t="s">
-        <v>566</v>
+        <v>552</v>
       </c>
       <c r="F112" t="s">
-        <v>698</v>
+        <v>684</v>
       </c>
       <c r="G112" t="s">
-        <v>841</v>
+        <v>827</v>
       </c>
       <c r="H112" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I112" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C113" t="s">
         <v>266</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E113" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="F113" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="G113" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
       <c r="H113" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I113" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="114" spans="1:9">
       <c r="A114" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C114" t="s">
         <v>267</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="E114" t="s">
-        <v>568</v>
+        <v>555</v>
       </c>
       <c r="F114" t="s">
-        <v>702</v>
+        <v>687</v>
       </c>
       <c r="G114" t="s">
-        <v>842</v>
+        <v>826</v>
       </c>
       <c r="H114" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I114" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="115" spans="1:9">
       <c r="A115" s="1">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B115" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C115" t="s">
         <v>268</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E115" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="F115" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="G115" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="H115" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I115" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="116" spans="1:9">
       <c r="A116" s="1">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B116" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C116" t="s">
         <v>269</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="E116" t="s">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="F116" t="s">
-        <v>701</v>
+        <v>690</v>
       </c>
       <c r="G116" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="H116" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I116" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B117" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C117" t="s">
         <v>270</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E117" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="F117" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G117" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
       <c r="H117" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I117" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B118" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C118" t="s">
         <v>271</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E118" t="s">
-        <v>570</v>
+        <v>557</v>
       </c>
       <c r="F118" t="s">
-        <v>703</v>
+        <v>692</v>
       </c>
       <c r="G118" t="s">
-        <v>843</v>
+        <v>832</v>
       </c>
       <c r="H118" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I118" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="1">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B119" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C119" t="s">
         <v>272</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="E119" t="s">
-        <v>571</v>
+        <v>557</v>
       </c>
       <c r="F119" t="s">
-        <v>704</v>
+        <v>693</v>
       </c>
       <c r="G119" t="s">
-        <v>844</v>
+        <v>833</v>
       </c>
       <c r="H119" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I119" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C120" t="s">
         <v>273</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="E120" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
       <c r="F120" t="s">
-        <v>698</v>
+        <v>691</v>
       </c>
       <c r="G120" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="H120" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I120" t="s">
-        <v>897</v>
+        <v>884</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="1">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B121" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C121" t="s">
         <v>274</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E121" t="s">
-        <v>571</v>
+        <v>558</v>
       </c>
       <c r="F121" t="s">
-        <v>705</v>
+        <v>694</v>
       </c>
       <c r="G121" t="s">
-        <v>845</v>
+        <v>835</v>
       </c>
       <c r="H121" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I121" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
     </row>
     <row r="122" spans="1:9">
       <c r="A122" s="1">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B122" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C122" t="s">
         <v>275</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="E122" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="F122" t="s">
-        <v>706</v>
+        <v>695</v>
       </c>
       <c r="G122" t="s">
-        <v>846</v>
+        <v>836</v>
       </c>
       <c r="H122" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I122" t="s">
-        <v>898</v>
+        <v>885</v>
       </c>
     </row>
     <row r="123" spans="1:9">
       <c r="A123" s="1">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B123" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C123" t="s">
         <v>276</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E123" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="F123" t="s">
-        <v>707</v>
+        <v>696</v>
       </c>
       <c r="G123" t="s">
-        <v>847</v>
+        <v>837</v>
       </c>
       <c r="H123" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I123" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="1">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B124" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="C124" t="s">
         <v>277</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="E124" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F124" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="G124" t="s">
-        <v>848</v>
+        <v>838</v>
       </c>
       <c r="H124" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I124" t="s">
-        <v>898</v>
+        <v>886</v>
       </c>
     </row>
     <row r="125" spans="1:9">
       <c r="A125" s="1">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B125" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
         <v>278</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="E125" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="F125" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G125" t="s">
-        <v>849</v>
+        <v>839</v>
       </c>
       <c r="H125" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I125" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
     </row>
     <row r="126" spans="1:9">
       <c r="A126" s="1">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B126" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
         <v>279</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E126" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F126" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="G126" t="s">
-        <v>850</v>
+        <v>840</v>
       </c>
       <c r="H126" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I126" t="s">
-        <v>899</v>
+        <v>886</v>
       </c>
     </row>
     <row r="127" spans="1:9">
       <c r="A127" s="1">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B127" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C127" t="s">
         <v>280</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E127" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F127" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G127" t="s">
-        <v>851</v>
+        <v>841</v>
       </c>
       <c r="H127" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I127" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="128" spans="1:9">
       <c r="A128" s="1">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B128" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C128" t="s">
         <v>281</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="E128" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F128" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="G128" t="s">
-        <v>852</v>
+        <v>842</v>
       </c>
       <c r="H128" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I128" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="129" spans="1:9">
       <c r="A129" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B129" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C129" t="s">
         <v>282</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E129" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="F129" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G129" t="s">
-        <v>853</v>
+        <v>843</v>
       </c>
       <c r="H129" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I129" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C130" t="s">
         <v>283</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="E130" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F130" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="G130" t="s">
-        <v>854</v>
+        <v>844</v>
       </c>
       <c r="H130" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I130" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="131" spans="1:9">
       <c r="A131" s="1">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C131" t="s">
         <v>284</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E131" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="F131" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
       <c r="G131" t="s">
-        <v>855</v>
+        <v>843</v>
       </c>
       <c r="H131" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I131" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="132" spans="1:9">
       <c r="A132" s="1">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C132" t="s">
         <v>285</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E132" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="F132" t="s">
-        <v>715</v>
+        <v>704</v>
       </c>
       <c r="G132" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="H132" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I132" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="133" spans="1:9">
       <c r="A133" s="1">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B133" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C133" t="s">
         <v>286</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E133" t="s">
-        <v>580</v>
+        <v>566</v>
       </c>
       <c r="F133" t="s">
-        <v>716</v>
+        <v>702</v>
       </c>
       <c r="G133" t="s">
-        <v>857</v>
+        <v>843</v>
       </c>
       <c r="H133" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I133" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="1">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="B134" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="C134" t="s">
         <v>287</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E134" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="F134" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="G134" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="H134" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I134" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B135" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="C135" t="s">
         <v>288</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E135" t="s">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="F135" t="s">
-        <v>717</v>
+        <v>706</v>
       </c>
       <c r="G135" t="s">
-        <v>858</v>
+        <v>847</v>
       </c>
       <c r="H135" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I135" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
     </row>
     <row r="136" spans="1:9">
       <c r="A136" s="1">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C136" t="s">
         <v>289</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E136" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="F136" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="G136" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="H136" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I136" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="1">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B137" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="C137" t="s">
         <v>290</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="E137" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="F137" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G137" t="s">
-        <v>859</v>
+        <v>849</v>
       </c>
       <c r="H137" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I137" t="s">
-        <v>900</v>
+        <v>887</v>
       </c>
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="1">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B138" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="C138" t="s">
         <v>291</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="E138" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="F138" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G138" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H138" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I138" t="s">
-        <v>900</v>
+        <v>876</v>
       </c>
     </row>
     <row r="139" spans="1:9">
       <c r="A139" s="1">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B139" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="C139" t="s">
         <v>292</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E139" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="F139" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="G139" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
       <c r="H139" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I139" t="s">
-        <v>900</v>
+        <v>888</v>
       </c>
     </row>
     <row r="140" spans="1:9">
       <c r="A140" s="1">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="B140" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C140" t="s">
         <v>293</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E140" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="F140" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
       <c r="G140" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
       <c r="H140" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I140" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
     </row>
     <row r="141" spans="1:9">
       <c r="A141" s="1">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C141" t="s">
         <v>294</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E141" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="F141" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
       <c r="G141" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
       <c r="H141" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I141" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
     </row>
     <row r="142" spans="1:9">
       <c r="A142" s="1">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B142" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C142" t="s">
         <v>295</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="E142" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="F142" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
       <c r="G142" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
       <c r="H142" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I142" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="1">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B143" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="C143" t="s">
         <v>296</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E143" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="F143" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
       <c r="G143" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
       <c r="H143" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I143" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B144" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C144" t="s">
         <v>297</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="E144" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="F144" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
       <c r="G144" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
       <c r="H144" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I144" t="s">
-        <v>890</v>
+        <v>878</v>
       </c>
     </row>
     <row r="145" spans="1:9">
       <c r="A145" s="1">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B145" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="C145" t="s">
         <v>298</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E145" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="F145" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
       <c r="G145" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
       <c r="H145" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I145" t="s">
-        <v>902</v>
+        <v>889</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="1">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B146" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="C146" t="s">
         <v>299</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="E146" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="F146" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
       <c r="G146" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
       <c r="H146" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I146" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="147" spans="1:9">
       <c r="A147" s="1">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B147" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C147" t="s">
         <v>300</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E147" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="F147" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
       <c r="G147" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
       <c r="H147" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I147" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="1">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="B148" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C148" t="s">
         <v>301</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E148" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="F148" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
       <c r="G148" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
       <c r="H148" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I148" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B149" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C149" t="s">
         <v>302</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E149" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="F149" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
       <c r="G149" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
       <c r="H149" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I149" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="1">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B150" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C150" t="s">
         <v>303</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E150" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="F150" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="G150" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="H150" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I150" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C151" t="s">
         <v>304</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E151" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="F151" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="G151" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="H151" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I151" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="152" spans="1:9">
       <c r="A152" s="1">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B152" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C152" t="s">
         <v>305</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="E152" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="F152" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="G152" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="H152" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I152" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="153" spans="1:9">
       <c r="A153" s="1">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B153" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C153" t="s">
         <v>306</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E153" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="F153" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="G153" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="H153" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I153" t="s">
-        <v>903</v>
+        <v>891</v>
       </c>
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="1">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C154" t="s">
         <v>307</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E154" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="F154" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="G154" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="H154" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I154" t="s">
-        <v>904</v>
+        <v>892</v>
       </c>
     </row>
     <row r="155" spans="1:9">
       <c r="A155" s="1">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C155" t="s">
         <v>308</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E155" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="F155" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="G155" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="H155" t="s">
-        <v>881</v>
+        <v>867</v>
       </c>
       <c r="I155" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156" t="s">
-        <v>149</v>
-      </c>
-      <c r="C156" t="s">
-        <v>309</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="E156" t="s">
-        <v>598</v>
-      </c>
-      <c r="F156" t="s">
-        <v>734</v>
-      </c>
-      <c r="G156" t="s">
-        <v>875</v>
-      </c>
-      <c r="H156" t="s">
-        <v>881</v>
-      </c>
-      <c r="I156" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157" t="s">
-        <v>149</v>
-      </c>
-      <c r="C157" t="s">
-        <v>310</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="E157" t="s">
-        <v>597</v>
-      </c>
-      <c r="F157" t="s">
-        <v>734</v>
-      </c>
-      <c r="G157" t="s">
-        <v>875</v>
-      </c>
-      <c r="H157" t="s">
-        <v>881</v>
-      </c>
-      <c r="I157" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158" t="s">
-        <v>150</v>
-      </c>
-      <c r="C158" t="s">
-        <v>311</v>
-      </c>
-      <c r="D158" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="E158" t="s">
-        <v>599</v>
-      </c>
-      <c r="F158" t="s">
-        <v>735</v>
-      </c>
-      <c r="G158" t="s">
-        <v>876</v>
-      </c>
-      <c r="H158" t="s">
-        <v>881</v>
-      </c>
-      <c r="I158" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159" t="s">
-        <v>151</v>
-      </c>
-      <c r="C159" t="s">
-        <v>312</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E159" t="s">
-        <v>600</v>
-      </c>
-      <c r="F159" t="s">
-        <v>736</v>
-      </c>
-      <c r="G159" t="s">
-        <v>877</v>
-      </c>
-      <c r="H159" t="s">
-        <v>881</v>
-      </c>
-      <c r="I159" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160" t="s">
-        <v>152</v>
-      </c>
-      <c r="C160" t="s">
-        <v>313</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="E160" t="s">
-        <v>601</v>
-      </c>
-      <c r="F160" t="s">
-        <v>737</v>
-      </c>
-      <c r="G160" t="s">
-        <v>878</v>
-      </c>
-      <c r="H160" t="s">
-        <v>881</v>
-      </c>
-      <c r="I160" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161" t="s">
-        <v>153</v>
-      </c>
-      <c r="C161" t="s">
-        <v>314</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="E161" t="s">
-        <v>602</v>
-      </c>
-      <c r="F161" t="s">
-        <v>738</v>
-      </c>
-      <c r="G161" t="s">
-        <v>879</v>
-      </c>
-      <c r="H161" t="s">
-        <v>881</v>
-      </c>
-      <c r="I161" t="s">
-        <v>906</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162" t="s">
-        <v>154</v>
-      </c>
-      <c r="C162" t="s">
-        <v>315</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>476</v>
-      </c>
-      <c r="E162" t="s">
-        <v>603</v>
-      </c>
-      <c r="F162" t="s">
-        <v>739</v>
-      </c>
-      <c r="G162" t="s">
-        <v>880</v>
-      </c>
-      <c r="H162" t="s">
-        <v>881</v>
-      </c>
-      <c r="I162" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
     </row>
   </sheetData>
@@ -7962,13 +7717,6 @@
     <hyperlink ref="D153" r:id="rId152"/>
     <hyperlink ref="D154" r:id="rId153"/>
     <hyperlink ref="D155" r:id="rId154"/>
-    <hyperlink ref="D156" r:id="rId155"/>
-    <hyperlink ref="D157" r:id="rId156"/>
-    <hyperlink ref="D158" r:id="rId157"/>
-    <hyperlink ref="D159" r:id="rId158"/>
-    <hyperlink ref="D160" r:id="rId159"/>
-    <hyperlink ref="D161" r:id="rId160"/>
-    <hyperlink ref="D162" r:id="rId161"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
